--- a/Team109-开发和测试过程数据统计对照表.xlsx
+++ b/Team109-开发和测试过程数据统计对照表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jy0205\Desktop\软工\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CC7136-8205-4A1B-A957-561A73C0E597}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="303">
   <si>
     <t>2019春软件工程嵌入式开发和测试过程数据统计对照表</t>
   </si>
@@ -110,15 +104,9 @@
     <t>贡献度计算依据</t>
   </si>
   <si>
-    <t>贡献度分配的计算依据</t>
-  </si>
-  <si>
     <t>贡献度数据追踪</t>
   </si>
   <si>
-    <t>追踪到其他几个数据表所列出的统计数据</t>
-  </si>
-  <si>
     <t>任务统计表</t>
   </si>
   <si>
@@ -563,10 +551,6 @@
   </si>
   <si>
     <t>003</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互界面</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -793,10 +777,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>建图、运动控制和交互界面的实现</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>f4bd3d4</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -999,17 +979,141 @@
   </si>
   <si>
     <t>4,5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱洪东</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>周环宇</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘博文</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>王闯</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>金阳</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合launch文件</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户系统</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>建图、运动控制的实现及其交互界面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT制作与展示</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱洪东 周环宇  刘博文 金阳 王闯 每人20%</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求文档</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计文档</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试文档</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发计划</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>012</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>013</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>014</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面交互</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.7%</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.2%</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.2%</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签识别</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务统计表中的任务9加权0.2，任务6，7，14加权0.15，其它任务算1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据每个人完成的任务量。没有延期的情况，无扣分。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分配，监督检查</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1105,6 +1209,12 @@
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -1235,7 +1345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1428,10 +1538,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1440,40 +1562,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1777,49 +1890,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="48" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="62" customWidth="1"/>
-    <col min="3" max="3" width="49" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="62" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="48" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="48" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="48" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="48" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="48" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="48" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="48" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" style="48" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" style="48" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" style="48" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" style="48" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" style="48" customWidth="1"/>
     <col min="11" max="11" width="11" style="48" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="48" customWidth="1"/>
-    <col min="13" max="13" width="11.25" style="48" customWidth="1"/>
-    <col min="14" max="16" width="12.75" style="48" customWidth="1"/>
-    <col min="17" max="16384" width="8.75" style="48"/>
+    <col min="13" max="13" width="11.19921875" style="48" customWidth="1"/>
+    <col min="14" max="16" width="12.69921875" style="48" customWidth="1"/>
+    <col min="17" max="16384" width="8.69921875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:16" ht="22.2">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="34"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
@@ -1829,13 +1942,13 @@
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" s="37"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="38"/>
       <c r="B5" s="28" t="s">
         <v>2</v>
@@ -1853,53 +1966,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>174</v>
-      </c>
       <c r="F6" s="31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>175</v>
-      </c>
       <c r="F7" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="39"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1913,7 +2026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="69" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="104.4">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -1939,7 +2052,7 @@
       <c r="O10" s="42"/>
       <c r="P10" s="42"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" ht="52.2">
       <c r="A11" s="31">
         <v>1</v>
       </c>
@@ -1965,7 +2078,7 @@
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
     </row>
-    <row r="12" spans="1:16" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" ht="52.2">
       <c r="A12" s="31">
         <v>2</v>
       </c>
@@ -1991,18 +2104,18 @@
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="87">
       <c r="A13" s="31">
         <v>3</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>167</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>170</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -2017,18 +2130,18 @@
       <c r="O13" s="42"/>
       <c r="P13" s="42"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="68">
+    <row r="14" spans="1:16">
+      <c r="A14" s="66">
         <v>4</v>
       </c>
-      <c r="B14" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="70" t="s">
+      <c r="B14" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="68" t="s">
         <v>208</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>211</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -2043,11 +2156,11 @@
       <c r="O14" s="42"/>
       <c r="P14" s="42"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
+    <row r="15" spans="1:16">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
@@ -2061,11 +2174,11 @@
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
+    <row r="16" spans="1:16">
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
@@ -2079,18 +2192,18 @@
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
     </row>
-    <row r="17" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="74">
+    <row r="17" spans="1:16" s="63" customFormat="1">
+      <c r="A17" s="73">
         <v>5</v>
       </c>
-      <c r="B17" s="76" t="s">
-        <v>268</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>275</v>
+      <c r="B17" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>271</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -2105,11 +2218,11 @@
       <c r="O17" s="42"/>
       <c r="P17" s="42"/>
     </row>
-    <row r="18" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="75"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
+    <row r="18" spans="1:16" s="63" customFormat="1">
+      <c r="A18" s="74"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -2123,7 +2236,7 @@
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="44"/>
       <c r="B19" s="45"/>
       <c r="C19" s="46"/>
@@ -2141,7 +2254,7 @@
       <c r="O19" s="42"/>
       <c r="P19" s="42"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
       <c r="I20" s="42"/>
@@ -2153,15 +2266,15 @@
       <c r="O20" s="42"/>
       <c r="P20" s="42"/>
     </row>
-    <row r="21" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="73" t="s">
+    <row r="21" spans="1:16" ht="22.2">
+      <c r="A21" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
@@ -2173,7 +2286,7 @@
       <c r="O21" s="42"/>
       <c r="P21" s="42"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="38"/>
       <c r="B22" s="28" t="s">
         <v>2</v>
@@ -2201,15 +2314,25 @@
       <c r="O22" s="42"/>
       <c r="P22" s="42"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+      <c r="B23" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>276</v>
+      </c>
       <c r="G23" s="42"/>
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
@@ -2221,15 +2344,25 @@
       <c r="O23" s="42"/>
       <c r="P23" s="42"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="B24" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="64">
+        <v>0.187</v>
+      </c>
+      <c r="F24" s="64">
+        <v>0.20200000000000001</v>
+      </c>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
@@ -2241,7 +2374,7 @@
       <c r="O24" s="42"/>
       <c r="P24" s="42"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="44"/>
       <c r="B25" s="45"/>
       <c r="C25" s="46"/>
@@ -2259,17 +2392,17 @@
       <c r="O25" s="42"/>
       <c r="P25" s="42"/>
     </row>
-    <row r="26" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16" ht="17.25" customHeight="1">
       <c r="A26" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
+      <c r="B26" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
       <c r="I26" s="42"/>
@@ -2281,17 +2414,17 @@
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
     </row>
-    <row r="27" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" ht="17.25" customHeight="1">
       <c r="A27" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67"/>
+        <v>28</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
@@ -2303,7 +2436,7 @@
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="42"/>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
@@ -2321,7 +2454,7 @@
       <c r="O28" s="42"/>
       <c r="P28" s="42"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="42"/>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
@@ -2339,7 +2472,7 @@
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30" s="42"/>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
@@ -2357,7 +2490,7 @@
       <c r="O30" s="42"/>
       <c r="P30" s="42"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31" s="42"/>
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
@@ -2375,7 +2508,7 @@
       <c r="O31" s="42"/>
       <c r="P31" s="42"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32" s="42"/>
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
@@ -2393,7 +2526,7 @@
       <c r="O32" s="42"/>
       <c r="P32" s="42"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16">
       <c r="A33" s="42"/>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
@@ -2411,7 +2544,7 @@
       <c r="O33" s="42"/>
       <c r="P33" s="42"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16">
       <c r="A34" s="42"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -2429,7 +2562,7 @@
       <c r="O34" s="42"/>
       <c r="P34" s="42"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16">
       <c r="A35" s="42"/>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
@@ -2447,7 +2580,7 @@
       <c r="O35" s="42"/>
       <c r="P35" s="42"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16">
       <c r="A36" s="42"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
@@ -2465,7 +2598,7 @@
       <c r="O36" s="42"/>
       <c r="P36" s="42"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16">
       <c r="A37" s="42"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -2483,7 +2616,7 @@
       <c r="O37" s="42"/>
       <c r="P37" s="42"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16">
       <c r="A38" s="42"/>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
@@ -2501,7 +2634,7 @@
       <c r="O38" s="42"/>
       <c r="P38" s="42"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16">
       <c r="A39" s="42"/>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
@@ -2519,7 +2652,7 @@
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16">
       <c r="A40" s="42"/>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
@@ -2537,7 +2670,7 @@
       <c r="O40" s="42"/>
       <c r="P40" s="42"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16">
       <c r="A41" s="42"/>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -2555,7 +2688,7 @@
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16">
       <c r="A42" s="42"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -2573,7 +2706,7 @@
       <c r="O42" s="42"/>
       <c r="P42" s="42"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16">
       <c r="A43" s="42"/>
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
@@ -2591,7 +2724,7 @@
       <c r="O43" s="42"/>
       <c r="P43" s="42"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16">
       <c r="A44" s="42"/>
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
@@ -2609,7 +2742,7 @@
       <c r="O44" s="42"/>
       <c r="P44" s="42"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16">
       <c r="A45" s="42"/>
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
@@ -2627,7 +2760,7 @@
       <c r="O45" s="42"/>
       <c r="P45" s="42"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16">
       <c r="A46" s="42"/>
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
@@ -2645,7 +2778,7 @@
       <c r="O46" s="42"/>
       <c r="P46" s="42"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16">
       <c r="A47" s="42"/>
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
@@ -2663,7 +2796,7 @@
       <c r="O47" s="42"/>
       <c r="P47" s="42"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16">
       <c r="A48" s="42"/>
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
@@ -2681,7 +2814,7 @@
       <c r="O48" s="42"/>
       <c r="P48" s="42"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16">
       <c r="A49" s="42"/>
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
@@ -2699,7 +2832,7 @@
       <c r="O49" s="42"/>
       <c r="P49" s="42"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16">
       <c r="A50" s="42"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
@@ -2717,7 +2850,7 @@
       <c r="O50" s="42"/>
       <c r="P50" s="42"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16">
       <c r="A51" s="42"/>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
@@ -2735,7 +2868,7 @@
       <c r="O51" s="42"/>
       <c r="P51" s="42"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16">
       <c r="A52" s="42"/>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
@@ -2753,7 +2886,7 @@
       <c r="O52" s="42"/>
       <c r="P52" s="42"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16">
       <c r="A53" s="42"/>
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
@@ -2771,7 +2904,7 @@
       <c r="O53" s="42"/>
       <c r="P53" s="42"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16">
       <c r="A54" s="42"/>
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
@@ -2789,7 +2922,7 @@
       <c r="O54" s="42"/>
       <c r="P54" s="42"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16">
       <c r="A55" s="42"/>
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
@@ -2807,7 +2940,7 @@
       <c r="O55" s="42"/>
       <c r="P55" s="42"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16">
       <c r="A56" s="42"/>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -2825,7 +2958,7 @@
       <c r="O56" s="42"/>
       <c r="P56" s="42"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16">
       <c r="A57" s="42"/>
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
@@ -2843,7 +2976,7 @@
       <c r="O57" s="42"/>
       <c r="P57" s="42"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16">
       <c r="A58" s="42"/>
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
@@ -2861,7 +2994,7 @@
       <c r="O58" s="42"/>
       <c r="P58" s="42"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16">
       <c r="A59" s="42"/>
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
@@ -2879,7 +3012,7 @@
       <c r="O59" s="42"/>
       <c r="P59" s="42"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16">
       <c r="A60" s="42"/>
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
@@ -2897,7 +3030,7 @@
       <c r="O60" s="42"/>
       <c r="P60" s="42"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16">
       <c r="A61" s="42"/>
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
@@ -2915,7 +3048,7 @@
       <c r="O61" s="42"/>
       <c r="P61" s="42"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16">
       <c r="A62" s="42"/>
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
@@ -2933,7 +3066,7 @@
       <c r="O62" s="42"/>
       <c r="P62" s="42"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16">
       <c r="A63" s="42"/>
       <c r="B63" s="47"/>
       <c r="C63" s="47"/>
@@ -2951,7 +3084,7 @@
       <c r="O63" s="42"/>
       <c r="P63" s="42"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16">
       <c r="A64" s="42"/>
       <c r="B64" s="47"/>
       <c r="C64" s="47"/>
@@ -2969,7 +3102,7 @@
       <c r="O64" s="42"/>
       <c r="P64" s="42"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16">
       <c r="A65" s="42"/>
       <c r="B65" s="47"/>
       <c r="C65" s="47"/>
@@ -2987,7 +3120,7 @@
       <c r="O65" s="42"/>
       <c r="P65" s="42"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16">
       <c r="A66" s="42"/>
       <c r="B66" s="47"/>
       <c r="C66" s="47"/>
@@ -3005,7 +3138,7 @@
       <c r="O66" s="42"/>
       <c r="P66" s="42"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16">
       <c r="A67" s="42"/>
       <c r="B67" s="47"/>
       <c r="C67" s="47"/>
@@ -3023,7 +3156,7 @@
       <c r="O67" s="42"/>
       <c r="P67" s="42"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16">
       <c r="A68" s="42"/>
       <c r="B68" s="47"/>
       <c r="C68" s="47"/>
@@ -3041,7 +3174,7 @@
       <c r="O68" s="42"/>
       <c r="P68" s="42"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16">
       <c r="A69" s="42"/>
       <c r="B69" s="47"/>
       <c r="C69" s="47"/>
@@ -3059,7 +3192,7 @@
       <c r="O69" s="42"/>
       <c r="P69" s="42"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16">
       <c r="A70" s="42"/>
       <c r="B70" s="47"/>
       <c r="C70" s="47"/>
@@ -3077,7 +3210,7 @@
       <c r="O70" s="42"/>
       <c r="P70" s="42"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16">
       <c r="A71" s="42"/>
       <c r="B71" s="47"/>
       <c r="C71" s="47"/>
@@ -3095,7 +3228,7 @@
       <c r="O71" s="42"/>
       <c r="P71" s="42"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16">
       <c r="A72" s="42"/>
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
@@ -3113,7 +3246,7 @@
       <c r="O72" s="42"/>
       <c r="P72" s="42"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16">
       <c r="A73" s="42"/>
       <c r="B73" s="47"/>
       <c r="C73" s="47"/>
@@ -3131,7 +3264,7 @@
       <c r="O73" s="42"/>
       <c r="P73" s="42"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16">
       <c r="A74" s="42"/>
       <c r="B74" s="47"/>
       <c r="C74" s="47"/>
@@ -3149,7 +3282,7 @@
       <c r="O74" s="42"/>
       <c r="P74" s="42"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16">
       <c r="A75" s="42"/>
       <c r="B75" s="47"/>
       <c r="C75" s="47"/>
@@ -3167,7 +3300,7 @@
       <c r="O75" s="42"/>
       <c r="P75" s="42"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16">
       <c r="A76" s="42"/>
       <c r="B76" s="47"/>
       <c r="C76" s="47"/>
@@ -3185,7 +3318,7 @@
       <c r="O76" s="42"/>
       <c r="P76" s="42"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16">
       <c r="A77" s="42"/>
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
@@ -3203,7 +3336,7 @@
       <c r="O77" s="42"/>
       <c r="P77" s="42"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16">
       <c r="A78" s="42"/>
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
@@ -3221,7 +3354,7 @@
       <c r="O78" s="42"/>
       <c r="P78" s="42"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16">
       <c r="A79" s="42"/>
       <c r="B79" s="47"/>
       <c r="C79" s="47"/>
@@ -3239,7 +3372,7 @@
       <c r="O79" s="42"/>
       <c r="P79" s="42"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16">
       <c r="A80" s="42"/>
       <c r="B80" s="47"/>
       <c r="C80" s="47"/>
@@ -3257,7 +3390,7 @@
       <c r="O80" s="42"/>
       <c r="P80" s="42"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16">
       <c r="A81" s="42"/>
       <c r="B81" s="47"/>
       <c r="C81" s="47"/>
@@ -3275,7 +3408,7 @@
       <c r="O81" s="42"/>
       <c r="P81" s="42"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16">
       <c r="A82" s="42"/>
       <c r="B82" s="47"/>
       <c r="C82" s="47"/>
@@ -3293,7 +3426,7 @@
       <c r="O82" s="42"/>
       <c r="P82" s="42"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16">
       <c r="A83" s="42"/>
       <c r="B83" s="47"/>
       <c r="C83" s="47"/>
@@ -3311,7 +3444,7 @@
       <c r="O83" s="42"/>
       <c r="P83" s="42"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16">
       <c r="A84" s="42"/>
       <c r="B84" s="47"/>
       <c r="C84" s="47"/>
@@ -3329,7 +3462,7 @@
       <c r="O84" s="42"/>
       <c r="P84" s="42"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16">
       <c r="A85" s="42"/>
       <c r="B85" s="47"/>
       <c r="C85" s="47"/>
@@ -3347,7 +3480,7 @@
       <c r="O85" s="42"/>
       <c r="P85" s="42"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16">
       <c r="A86" s="42"/>
       <c r="B86" s="47"/>
       <c r="C86" s="47"/>
@@ -3365,7 +3498,7 @@
       <c r="O86" s="42"/>
       <c r="P86" s="42"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16">
       <c r="A87" s="42"/>
       <c r="B87" s="47"/>
       <c r="C87" s="47"/>
@@ -3383,7 +3516,7 @@
       <c r="O87" s="42"/>
       <c r="P87" s="42"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16">
       <c r="A88" s="42"/>
       <c r="B88" s="47"/>
       <c r="C88" s="47"/>
@@ -3401,7 +3534,7 @@
       <c r="O88" s="42"/>
       <c r="P88" s="42"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16">
       <c r="A89" s="42"/>
       <c r="B89" s="47"/>
       <c r="C89" s="47"/>
@@ -3419,7 +3552,7 @@
       <c r="O89" s="42"/>
       <c r="P89" s="42"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16">
       <c r="A90" s="42"/>
       <c r="B90" s="47"/>
       <c r="C90" s="47"/>
@@ -3437,7 +3570,7 @@
       <c r="O90" s="42"/>
       <c r="P90" s="42"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16">
       <c r="A91" s="42"/>
       <c r="B91" s="47"/>
       <c r="C91" s="47"/>
@@ -3455,7 +3588,7 @@
       <c r="O91" s="42"/>
       <c r="P91" s="42"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16">
       <c r="A92" s="42"/>
       <c r="B92" s="47"/>
       <c r="C92" s="47"/>
@@ -3473,7 +3606,7 @@
       <c r="O92" s="42"/>
       <c r="P92" s="42"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16">
       <c r="A93" s="42"/>
       <c r="B93" s="47"/>
       <c r="C93" s="47"/>
@@ -3491,7 +3624,7 @@
       <c r="O93" s="42"/>
       <c r="P93" s="42"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16">
       <c r="A94" s="42"/>
       <c r="B94" s="47"/>
       <c r="C94" s="47"/>
@@ -3509,7 +3642,7 @@
       <c r="O94" s="42"/>
       <c r="P94" s="42"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16">
       <c r="A95" s="42"/>
       <c r="B95" s="47"/>
       <c r="C95" s="47"/>
@@ -3527,7 +3660,7 @@
       <c r="O95" s="42"/>
       <c r="P95" s="42"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16">
       <c r="A96" s="42"/>
       <c r="B96" s="47"/>
       <c r="C96" s="47"/>
@@ -3545,7 +3678,7 @@
       <c r="O96" s="42"/>
       <c r="P96" s="42"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:16">
       <c r="A97" s="42"/>
       <c r="B97" s="47"/>
       <c r="C97" s="47"/>
@@ -3563,7 +3696,7 @@
       <c r="O97" s="42"/>
       <c r="P97" s="42"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:16">
       <c r="A98" s="42"/>
       <c r="B98" s="47"/>
       <c r="C98" s="47"/>
@@ -3581,7 +3714,7 @@
       <c r="O98" s="42"/>
       <c r="P98" s="42"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:16">
       <c r="A99" s="42"/>
       <c r="B99" s="47"/>
       <c r="C99" s="47"/>
@@ -3599,7 +3732,7 @@
       <c r="O99" s="42"/>
       <c r="P99" s="42"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:16">
       <c r="A100" s="42"/>
       <c r="B100" s="47"/>
       <c r="C100" s="47"/>
@@ -3617,7 +3750,7 @@
       <c r="O100" s="42"/>
       <c r="P100" s="42"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16">
       <c r="A101" s="42"/>
       <c r="B101" s="47"/>
       <c r="C101" s="47"/>
@@ -3635,7 +3768,7 @@
       <c r="O101" s="42"/>
       <c r="P101" s="42"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:16">
       <c r="A102" s="42"/>
       <c r="B102" s="47"/>
       <c r="C102" s="47"/>
@@ -3653,7 +3786,7 @@
       <c r="O102" s="42"/>
       <c r="P102" s="42"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:16">
       <c r="A103" s="42"/>
       <c r="B103" s="47"/>
       <c r="C103" s="47"/>
@@ -3671,7 +3804,7 @@
       <c r="O103" s="42"/>
       <c r="P103" s="42"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:16">
       <c r="A104" s="42"/>
       <c r="B104" s="47"/>
       <c r="C104" s="47"/>
@@ -3689,7 +3822,7 @@
       <c r="O104" s="42"/>
       <c r="P104" s="42"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:16">
       <c r="A105" s="42"/>
       <c r="B105" s="47"/>
       <c r="C105" s="47"/>
@@ -3707,7 +3840,7 @@
       <c r="O105" s="42"/>
       <c r="P105" s="42"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:16">
       <c r="A106" s="42"/>
       <c r="B106" s="47"/>
       <c r="C106" s="47"/>
@@ -3725,7 +3858,7 @@
       <c r="O106" s="42"/>
       <c r="P106" s="42"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:16">
       <c r="A107" s="42"/>
       <c r="B107" s="47"/>
       <c r="C107" s="47"/>
@@ -3743,7 +3876,7 @@
       <c r="O107" s="42"/>
       <c r="P107" s="42"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:16">
       <c r="A108" s="42"/>
       <c r="B108" s="47"/>
       <c r="C108" s="47"/>
@@ -3761,7 +3894,7 @@
       <c r="O108" s="42"/>
       <c r="P108" s="42"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:16">
       <c r="A109" s="42"/>
       <c r="B109" s="47"/>
       <c r="C109" s="47"/>
@@ -3779,7 +3912,7 @@
       <c r="O109" s="42"/>
       <c r="P109" s="42"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:16">
       <c r="A110" s="42"/>
       <c r="B110" s="47"/>
       <c r="C110" s="47"/>
@@ -3797,7 +3930,7 @@
       <c r="O110" s="42"/>
       <c r="P110" s="42"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:16">
       <c r="A111" s="42"/>
       <c r="B111" s="47"/>
       <c r="C111" s="47"/>
@@ -3815,7 +3948,7 @@
       <c r="O111" s="42"/>
       <c r="P111" s="42"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:16">
       <c r="A112" s="42"/>
       <c r="B112" s="47"/>
       <c r="C112" s="47"/>
@@ -3833,7 +3966,7 @@
       <c r="O112" s="42"/>
       <c r="P112" s="42"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:16">
       <c r="A113" s="42"/>
       <c r="B113" s="47"/>
       <c r="C113" s="47"/>
@@ -3851,7 +3984,7 @@
       <c r="O113" s="42"/>
       <c r="P113" s="42"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:16">
       <c r="A114" s="42"/>
       <c r="B114" s="47"/>
       <c r="C114" s="47"/>
@@ -3869,7 +4002,7 @@
       <c r="O114" s="42"/>
       <c r="P114" s="42"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:16">
       <c r="A115" s="42"/>
       <c r="B115" s="47"/>
       <c r="C115" s="47"/>
@@ -3887,7 +4020,7 @@
       <c r="O115" s="42"/>
       <c r="P115" s="42"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:16">
       <c r="A116" s="42"/>
       <c r="B116" s="47"/>
       <c r="C116" s="47"/>
@@ -3905,7 +4038,7 @@
       <c r="O116" s="42"/>
       <c r="P116" s="42"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:16">
       <c r="A117" s="42"/>
       <c r="B117" s="47"/>
       <c r="C117" s="47"/>
@@ -3923,7 +4056,7 @@
       <c r="O117" s="42"/>
       <c r="P117" s="42"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:16">
       <c r="A118" s="42"/>
       <c r="B118" s="47"/>
       <c r="C118" s="47"/>
@@ -3941,7 +4074,7 @@
       <c r="O118" s="42"/>
       <c r="P118" s="42"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:16">
       <c r="A119" s="42"/>
       <c r="B119" s="47"/>
       <c r="C119" s="47"/>
@@ -3959,7 +4092,7 @@
       <c r="O119" s="42"/>
       <c r="P119" s="42"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:16">
       <c r="A120" s="42"/>
       <c r="B120" s="47"/>
       <c r="C120" s="47"/>
@@ -3977,7 +4110,7 @@
       <c r="O120" s="42"/>
       <c r="P120" s="42"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:16">
       <c r="A121" s="42"/>
       <c r="B121" s="47"/>
       <c r="C121" s="47"/>
@@ -3995,7 +4128,7 @@
       <c r="O121" s="42"/>
       <c r="P121" s="42"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:16">
       <c r="A122" s="42"/>
       <c r="B122" s="47"/>
       <c r="C122" s="47"/>
@@ -4013,7 +4146,7 @@
       <c r="O122" s="42"/>
       <c r="P122" s="42"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:16">
       <c r="A123" s="42"/>
       <c r="B123" s="47"/>
       <c r="C123" s="47"/>
@@ -4031,7 +4164,7 @@
       <c r="O123" s="42"/>
       <c r="P123" s="42"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:16">
       <c r="A124" s="42"/>
       <c r="B124" s="47"/>
       <c r="C124" s="47"/>
@@ -4049,7 +4182,7 @@
       <c r="O124" s="42"/>
       <c r="P124" s="42"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:16">
       <c r="A125" s="42"/>
       <c r="B125" s="47"/>
       <c r="C125" s="47"/>
@@ -4067,7 +4200,7 @@
       <c r="O125" s="42"/>
       <c r="P125" s="42"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:16">
       <c r="A126" s="42"/>
       <c r="B126" s="47"/>
       <c r="C126" s="47"/>
@@ -4085,7 +4218,7 @@
       <c r="O126" s="42"/>
       <c r="P126" s="42"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:16">
       <c r="A127" s="42"/>
       <c r="B127" s="47"/>
       <c r="C127" s="47"/>
@@ -4103,7 +4236,7 @@
       <c r="O127" s="42"/>
       <c r="P127" s="42"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:16">
       <c r="A128" s="42"/>
       <c r="B128" s="47"/>
       <c r="C128" s="47"/>
@@ -4121,7 +4254,7 @@
       <c r="O128" s="42"/>
       <c r="P128" s="42"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:16">
       <c r="A129" s="42"/>
       <c r="B129" s="47"/>
       <c r="C129" s="47"/>
@@ -4139,7 +4272,7 @@
       <c r="O129" s="42"/>
       <c r="P129" s="42"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:16">
       <c r="A130" s="42"/>
       <c r="B130" s="47"/>
       <c r="C130" s="47"/>
@@ -4157,7 +4290,7 @@
       <c r="O130" s="42"/>
       <c r="P130" s="42"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:16">
       <c r="A131" s="42"/>
       <c r="B131" s="47"/>
       <c r="C131" s="47"/>
@@ -4175,7 +4308,7 @@
       <c r="O131" s="42"/>
       <c r="P131" s="42"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:16">
       <c r="A132" s="42"/>
       <c r="B132" s="47"/>
       <c r="C132" s="47"/>
@@ -4193,7 +4326,7 @@
       <c r="O132" s="42"/>
       <c r="P132" s="42"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:16">
       <c r="A133" s="42"/>
       <c r="B133" s="47"/>
       <c r="C133" s="47"/>
@@ -4211,7 +4344,7 @@
       <c r="O133" s="42"/>
       <c r="P133" s="42"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:16">
       <c r="A134" s="42"/>
       <c r="B134" s="47"/>
       <c r="C134" s="47"/>
@@ -4229,7 +4362,7 @@
       <c r="O134" s="42"/>
       <c r="P134" s="42"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:16">
       <c r="A135" s="42"/>
       <c r="B135" s="47"/>
       <c r="C135" s="47"/>
@@ -4247,7 +4380,7 @@
       <c r="O135" s="42"/>
       <c r="P135" s="42"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:16">
       <c r="A136" s="42"/>
       <c r="B136" s="47"/>
       <c r="C136" s="47"/>
@@ -4265,7 +4398,7 @@
       <c r="O136" s="42"/>
       <c r="P136" s="42"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:16">
       <c r="A137" s="42"/>
       <c r="B137" s="47"/>
       <c r="C137" s="47"/>
@@ -4283,7 +4416,7 @@
       <c r="O137" s="42"/>
       <c r="P137" s="42"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:16">
       <c r="A138" s="42"/>
       <c r="B138" s="47"/>
       <c r="C138" s="47"/>
@@ -4301,7 +4434,7 @@
       <c r="O138" s="42"/>
       <c r="P138" s="42"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:16">
       <c r="A139" s="42"/>
       <c r="B139" s="47"/>
       <c r="C139" s="47"/>
@@ -4319,7 +4452,7 @@
       <c r="O139" s="42"/>
       <c r="P139" s="42"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:16">
       <c r="A140" s="42"/>
       <c r="B140" s="47"/>
       <c r="C140" s="47"/>
@@ -4337,7 +4470,7 @@
       <c r="O140" s="42"/>
       <c r="P140" s="42"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:16">
       <c r="A141" s="42"/>
       <c r="B141" s="47"/>
       <c r="C141" s="47"/>
@@ -4355,7 +4488,7 @@
       <c r="O141" s="42"/>
       <c r="P141" s="42"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:16">
       <c r="A142" s="42"/>
       <c r="B142" s="47"/>
       <c r="C142" s="47"/>
@@ -4373,7 +4506,7 @@
       <c r="O142" s="42"/>
       <c r="P142" s="42"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:16">
       <c r="A143" s="42"/>
       <c r="B143" s="47"/>
       <c r="C143" s="47"/>
@@ -4391,7 +4524,7 @@
       <c r="O143" s="42"/>
       <c r="P143" s="42"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:16">
       <c r="A144" s="42"/>
       <c r="B144" s="47"/>
       <c r="C144" s="47"/>
@@ -4409,7 +4542,7 @@
       <c r="O144" s="42"/>
       <c r="P144" s="42"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:16">
       <c r="A145" s="42"/>
       <c r="B145" s="47"/>
       <c r="C145" s="47"/>
@@ -4427,7 +4560,7 @@
       <c r="O145" s="42"/>
       <c r="P145" s="42"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:16">
       <c r="A146" s="42"/>
       <c r="B146" s="47"/>
       <c r="C146" s="47"/>
@@ -4445,7 +4578,7 @@
       <c r="O146" s="42"/>
       <c r="P146" s="42"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:16">
       <c r="A147" s="42"/>
       <c r="B147" s="47"/>
       <c r="C147" s="47"/>
@@ -4463,7 +4596,7 @@
       <c r="O147" s="42"/>
       <c r="P147" s="42"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:16">
       <c r="A148" s="42"/>
       <c r="B148" s="47"/>
       <c r="C148" s="47"/>
@@ -4481,7 +4614,7 @@
       <c r="O148" s="42"/>
       <c r="P148" s="42"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:16">
       <c r="A149" s="42"/>
       <c r="B149" s="47"/>
       <c r="C149" s="47"/>
@@ -4499,7 +4632,7 @@
       <c r="O149" s="42"/>
       <c r="P149" s="42"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:16">
       <c r="A150" s="42"/>
       <c r="B150" s="47"/>
       <c r="C150" s="47"/>
@@ -4517,7 +4650,7 @@
       <c r="O150" s="42"/>
       <c r="P150" s="42"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:16">
       <c r="A151" s="42"/>
       <c r="B151" s="47"/>
       <c r="C151" s="47"/>
@@ -4535,7 +4668,7 @@
       <c r="O151" s="42"/>
       <c r="P151" s="42"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:16">
       <c r="A152" s="42"/>
       <c r="B152" s="47"/>
       <c r="C152" s="47"/>
@@ -4553,7 +4686,7 @@
       <c r="O152" s="42"/>
       <c r="P152" s="42"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:16">
       <c r="A153" s="42"/>
       <c r="B153" s="47"/>
       <c r="C153" s="47"/>
@@ -4571,7 +4704,7 @@
       <c r="O153" s="42"/>
       <c r="P153" s="42"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:16">
       <c r="A154" s="42"/>
       <c r="B154" s="47"/>
       <c r="C154" s="47"/>
@@ -4589,7 +4722,7 @@
       <c r="O154" s="42"/>
       <c r="P154" s="42"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:16">
       <c r="A155" s="42"/>
       <c r="B155" s="47"/>
       <c r="C155" s="47"/>
@@ -4607,7 +4740,7 @@
       <c r="O155" s="42"/>
       <c r="P155" s="42"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:16">
       <c r="A156" s="42"/>
       <c r="B156" s="47"/>
       <c r="C156" s="47"/>
@@ -4625,7 +4758,7 @@
       <c r="O156" s="42"/>
       <c r="P156" s="42"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:16">
       <c r="A157" s="42"/>
       <c r="B157" s="47"/>
       <c r="C157" s="47"/>
@@ -4643,7 +4776,7 @@
       <c r="O157" s="42"/>
       <c r="P157" s="42"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:16">
       <c r="A158" s="42"/>
       <c r="B158" s="47"/>
       <c r="C158" s="47"/>
@@ -4661,7 +4794,7 @@
       <c r="O158" s="42"/>
       <c r="P158" s="42"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:16">
       <c r="A159" s="42"/>
       <c r="B159" s="47"/>
       <c r="C159" s="47"/>
@@ -4679,7 +4812,7 @@
       <c r="O159" s="42"/>
       <c r="P159" s="42"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:16">
       <c r="A160" s="42"/>
       <c r="B160" s="47"/>
       <c r="C160" s="47"/>
@@ -4697,7 +4830,7 @@
       <c r="O160" s="42"/>
       <c r="P160" s="42"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:16">
       <c r="A161" s="42"/>
       <c r="B161" s="47"/>
       <c r="C161" s="47"/>
@@ -4715,7 +4848,7 @@
       <c r="O161" s="42"/>
       <c r="P161" s="42"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:16">
       <c r="A162" s="42"/>
       <c r="B162" s="47"/>
       <c r="C162" s="47"/>
@@ -4733,7 +4866,7 @@
       <c r="O162" s="42"/>
       <c r="P162" s="42"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:16">
       <c r="A163" s="42"/>
       <c r="B163" s="47"/>
       <c r="C163" s="47"/>
@@ -4751,7 +4884,7 @@
       <c r="O163" s="42"/>
       <c r="P163" s="42"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:16">
       <c r="A164" s="42"/>
       <c r="B164" s="47"/>
       <c r="C164" s="47"/>
@@ -4769,7 +4902,7 @@
       <c r="O164" s="42"/>
       <c r="P164" s="42"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:16">
       <c r="A165" s="42"/>
       <c r="B165" s="47"/>
       <c r="C165" s="47"/>
@@ -4787,7 +4920,7 @@
       <c r="O165" s="42"/>
       <c r="P165" s="42"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:16">
       <c r="A166" s="42"/>
       <c r="B166" s="47"/>
       <c r="C166" s="47"/>
@@ -4805,7 +4938,7 @@
       <c r="O166" s="42"/>
       <c r="P166" s="42"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:16">
       <c r="A167" s="42"/>
       <c r="B167" s="47"/>
       <c r="C167" s="47"/>
@@ -4823,7 +4956,7 @@
       <c r="O167" s="42"/>
       <c r="P167" s="42"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:16">
       <c r="A168" s="42"/>
       <c r="B168" s="47"/>
       <c r="C168" s="47"/>
@@ -4841,7 +4974,7 @@
       <c r="O168" s="42"/>
       <c r="P168" s="42"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:16">
       <c r="A169" s="42"/>
       <c r="B169" s="47"/>
       <c r="C169" s="47"/>
@@ -4859,7 +4992,7 @@
       <c r="O169" s="42"/>
       <c r="P169" s="42"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:16">
       <c r="A170" s="42"/>
       <c r="B170" s="47"/>
       <c r="C170" s="47"/>
@@ -4877,7 +5010,7 @@
       <c r="O170" s="42"/>
       <c r="P170" s="42"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:16">
       <c r="A171" s="42"/>
       <c r="B171" s="47"/>
       <c r="C171" s="47"/>
@@ -4895,7 +5028,7 @@
       <c r="O171" s="42"/>
       <c r="P171" s="42"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:16">
       <c r="A172" s="42"/>
       <c r="B172" s="47"/>
       <c r="C172" s="47"/>
@@ -4913,7 +5046,7 @@
       <c r="O172" s="42"/>
       <c r="P172" s="42"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:16">
       <c r="A173" s="42"/>
       <c r="B173" s="47"/>
       <c r="C173" s="47"/>
@@ -4931,7 +5064,7 @@
       <c r="O173" s="42"/>
       <c r="P173" s="42"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:16">
       <c r="A174" s="42"/>
       <c r="B174" s="47"/>
       <c r="C174" s="47"/>
@@ -4949,7 +5082,7 @@
       <c r="O174" s="42"/>
       <c r="P174" s="42"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:16">
       <c r="A175" s="42"/>
       <c r="B175" s="47"/>
       <c r="C175" s="47"/>
@@ -4967,7 +5100,7 @@
       <c r="O175" s="42"/>
       <c r="P175" s="42"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:16">
       <c r="A176" s="42"/>
       <c r="B176" s="47"/>
       <c r="C176" s="47"/>
@@ -4985,7 +5118,7 @@
       <c r="O176" s="42"/>
       <c r="P176" s="42"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:16">
       <c r="A177" s="42"/>
       <c r="B177" s="47"/>
       <c r="C177" s="47"/>
@@ -5003,7 +5136,7 @@
       <c r="O177" s="42"/>
       <c r="P177" s="42"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:16">
       <c r="A178" s="42"/>
       <c r="B178" s="47"/>
       <c r="C178" s="47"/>
@@ -5021,7 +5154,7 @@
       <c r="O178" s="42"/>
       <c r="P178" s="42"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:16">
       <c r="A179" s="42"/>
       <c r="B179" s="47"/>
       <c r="C179" s="47"/>
@@ -5039,7 +5172,7 @@
       <c r="O179" s="42"/>
       <c r="P179" s="42"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:16">
       <c r="A180" s="42"/>
       <c r="B180" s="47"/>
       <c r="C180" s="47"/>
@@ -5057,7 +5190,7 @@
       <c r="O180" s="42"/>
       <c r="P180" s="42"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:16">
       <c r="A181" s="42"/>
       <c r="B181" s="47"/>
       <c r="C181" s="47"/>
@@ -5075,7 +5208,7 @@
       <c r="O181" s="42"/>
       <c r="P181" s="42"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:16">
       <c r="A182" s="42"/>
       <c r="B182" s="47"/>
       <c r="C182" s="47"/>
@@ -5093,7 +5226,7 @@
       <c r="O182" s="42"/>
       <c r="P182" s="42"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:16">
       <c r="A183" s="42"/>
       <c r="B183" s="47"/>
       <c r="C183" s="47"/>
@@ -5111,7 +5244,7 @@
       <c r="O183" s="42"/>
       <c r="P183" s="42"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:16">
       <c r="A184" s="42"/>
       <c r="B184" s="47"/>
       <c r="C184" s="47"/>
@@ -5129,7 +5262,7 @@
       <c r="O184" s="42"/>
       <c r="P184" s="42"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:16">
       <c r="A185" s="42"/>
       <c r="B185" s="47"/>
       <c r="C185" s="47"/>
@@ -5147,7 +5280,7 @@
       <c r="O185" s="42"/>
       <c r="P185" s="42"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:16">
       <c r="A186" s="42"/>
       <c r="B186" s="47"/>
       <c r="C186" s="47"/>
@@ -5165,7 +5298,7 @@
       <c r="O186" s="42"/>
       <c r="P186" s="42"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:16">
       <c r="A187" s="42"/>
       <c r="B187" s="47"/>
       <c r="C187" s="47"/>
@@ -5183,7 +5316,7 @@
       <c r="O187" s="42"/>
       <c r="P187" s="42"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:16">
       <c r="A188" s="42"/>
       <c r="B188" s="47"/>
       <c r="C188" s="47"/>
@@ -5201,7 +5334,7 @@
       <c r="O188" s="42"/>
       <c r="P188" s="42"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:16">
       <c r="A189" s="42"/>
       <c r="B189" s="47"/>
       <c r="C189" s="47"/>
@@ -5219,7 +5352,7 @@
       <c r="O189" s="42"/>
       <c r="P189" s="42"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:16">
       <c r="A190" s="42"/>
       <c r="B190" s="47"/>
       <c r="C190" s="47"/>
@@ -5237,7 +5370,7 @@
       <c r="O190" s="42"/>
       <c r="P190" s="42"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:16">
       <c r="A191" s="42"/>
       <c r="B191" s="47"/>
       <c r="C191" s="47"/>
@@ -5255,7 +5388,7 @@
       <c r="O191" s="42"/>
       <c r="P191" s="42"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:16">
       <c r="A192" s="42"/>
       <c r="B192" s="47"/>
       <c r="C192" s="47"/>
@@ -5273,7 +5406,7 @@
       <c r="O192" s="42"/>
       <c r="P192" s="42"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:16">
       <c r="A193" s="42"/>
       <c r="B193" s="47"/>
       <c r="C193" s="47"/>
@@ -5291,7 +5424,7 @@
       <c r="O193" s="42"/>
       <c r="P193" s="42"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:16">
       <c r="A194" s="42"/>
       <c r="B194" s="47"/>
       <c r="C194" s="47"/>
@@ -5309,7 +5442,7 @@
       <c r="O194" s="42"/>
       <c r="P194" s="42"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:16">
       <c r="A195" s="42"/>
       <c r="B195" s="47"/>
       <c r="C195" s="47"/>
@@ -5327,7 +5460,7 @@
       <c r="O195" s="42"/>
       <c r="P195" s="42"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:16">
       <c r="A196" s="42"/>
       <c r="B196" s="47"/>
       <c r="C196" s="47"/>
@@ -5345,7 +5478,7 @@
       <c r="O196" s="42"/>
       <c r="P196" s="42"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:16">
       <c r="A197" s="42"/>
       <c r="B197" s="47"/>
       <c r="C197" s="47"/>
@@ -5363,7 +5496,7 @@
       <c r="O197" s="42"/>
       <c r="P197" s="42"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:16">
       <c r="A198" s="42"/>
       <c r="B198" s="47"/>
       <c r="C198" s="47"/>
@@ -5381,7 +5514,7 @@
       <c r="O198" s="42"/>
       <c r="P198" s="42"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:16">
       <c r="A199" s="42"/>
       <c r="B199" s="47"/>
       <c r="C199" s="47"/>
@@ -5399,7 +5532,7 @@
       <c r="O199" s="42"/>
       <c r="P199" s="42"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:16">
       <c r="A200" s="42"/>
       <c r="B200" s="47"/>
       <c r="C200" s="47"/>
@@ -5417,7 +5550,7 @@
       <c r="O200" s="42"/>
       <c r="P200" s="42"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:16">
       <c r="A201" s="42"/>
       <c r="B201" s="47"/>
       <c r="C201" s="47"/>
@@ -5435,7 +5568,7 @@
       <c r="O201" s="42"/>
       <c r="P201" s="42"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:16">
       <c r="A202" s="42"/>
       <c r="B202" s="47"/>
       <c r="C202" s="47"/>
@@ -5453,7 +5586,7 @@
       <c r="O202" s="42"/>
       <c r="P202" s="42"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:16">
       <c r="A203" s="42"/>
       <c r="B203" s="47"/>
       <c r="C203" s="47"/>
@@ -5471,7 +5604,7 @@
       <c r="O203" s="42"/>
       <c r="P203" s="42"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:16">
       <c r="A204" s="42"/>
       <c r="B204" s="47"/>
       <c r="C204" s="47"/>
@@ -5489,7 +5622,7 @@
       <c r="O204" s="42"/>
       <c r="P204" s="42"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:16">
       <c r="A205" s="42"/>
       <c r="B205" s="47"/>
       <c r="C205" s="47"/>
@@ -5507,7 +5640,7 @@
       <c r="O205" s="42"/>
       <c r="P205" s="42"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:16">
       <c r="A206" s="42"/>
       <c r="B206" s="47"/>
       <c r="C206" s="47"/>
@@ -5525,7 +5658,7 @@
       <c r="O206" s="42"/>
       <c r="P206" s="42"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:16">
       <c r="A207" s="42"/>
       <c r="B207" s="47"/>
       <c r="C207" s="47"/>
@@ -5543,7 +5676,7 @@
       <c r="O207" s="42"/>
       <c r="P207" s="42"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:16">
       <c r="A208" s="42"/>
       <c r="B208" s="47"/>
       <c r="C208" s="47"/>
@@ -5561,7 +5694,7 @@
       <c r="O208" s="42"/>
       <c r="P208" s="42"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:16">
       <c r="A209" s="42"/>
       <c r="B209" s="47"/>
       <c r="C209" s="47"/>
@@ -5579,7 +5712,7 @@
       <c r="O209" s="42"/>
       <c r="P209" s="42"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:16">
       <c r="A210" s="42"/>
       <c r="B210" s="47"/>
       <c r="C210" s="47"/>
@@ -5597,7 +5730,7 @@
       <c r="O210" s="42"/>
       <c r="P210" s="42"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:16">
       <c r="A211" s="42"/>
       <c r="B211" s="47"/>
       <c r="C211" s="47"/>
@@ -5615,7 +5748,7 @@
       <c r="O211" s="42"/>
       <c r="P211" s="42"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:16">
       <c r="A212" s="42"/>
       <c r="B212" s="47"/>
       <c r="C212" s="47"/>
@@ -5633,7 +5766,7 @@
       <c r="O212" s="42"/>
       <c r="P212" s="42"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:16">
       <c r="A213" s="42"/>
       <c r="B213" s="47"/>
       <c r="C213" s="47"/>
@@ -5651,7 +5784,7 @@
       <c r="O213" s="42"/>
       <c r="P213" s="42"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:16">
       <c r="A214" s="42"/>
       <c r="B214" s="47"/>
       <c r="C214" s="47"/>
@@ -5669,7 +5802,7 @@
       <c r="O214" s="42"/>
       <c r="P214" s="42"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:16">
       <c r="A215" s="42"/>
       <c r="B215" s="47"/>
       <c r="C215" s="47"/>
@@ -5687,7 +5820,7 @@
       <c r="O215" s="42"/>
       <c r="P215" s="42"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:16">
       <c r="A216" s="42"/>
       <c r="B216" s="47"/>
       <c r="C216" s="47"/>
@@ -5705,7 +5838,7 @@
       <c r="O216" s="42"/>
       <c r="P216" s="42"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:16">
       <c r="A217" s="42"/>
       <c r="B217" s="47"/>
       <c r="C217" s="47"/>
@@ -5745,58 +5878,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="33" customWidth="1"/>
-    <col min="3" max="3" width="35.75" customWidth="1"/>
-    <col min="4" max="4" width="40.75" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="35.69921875" customWidth="1"/>
+    <col min="4" max="4" width="40.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="22.2">
+      <c r="A1" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:4" ht="17.399999999999999">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:4" ht="17.399999999999999">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5804,13 +5937,13 @@
         <v>19</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="17.399999999999999">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5818,115 +5951,187 @@
         <v>22</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="17.399999999999999">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.399999999999999">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.399999999999999">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.399999999999999">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.399999999999999">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.399999999999999">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.399999999999999">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.399999999999999">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.399999999999999">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.399999999999999">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.399999999999999">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.399999999999999">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.399999999999999">
       <c r="A18" s="3"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
     </row>
-    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="17.399999999999999">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
@@ -5942,373 +6147,373 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="31" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" style="31" customWidth="1"/>
     <col min="2" max="2" width="37" style="60" customWidth="1"/>
-    <col min="3" max="3" width="81.125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="42.25" style="55" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="2"/>
+    <col min="3" max="3" width="81.09765625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="42.19921875" style="55" customWidth="1"/>
+    <col min="5" max="5" width="22.19921875" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="22.2">
+      <c r="A1" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="E2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="31">
         <v>1</v>
       </c>
       <c r="B3" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="E3" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="31">
         <v>1</v>
       </c>
       <c r="B4" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>51</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="31">
         <v>2</v>
       </c>
       <c r="B5" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>54</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="31">
         <v>3</v>
       </c>
       <c r="B6" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>57</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="31">
         <v>4</v>
       </c>
       <c r="B7" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>60</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="31">
         <v>5</v>
       </c>
       <c r="B8" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="54" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>63</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="31">
         <v>6</v>
       </c>
       <c r="B9" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="54" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>66</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="31">
         <v>7</v>
       </c>
       <c r="B10" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="54" t="s">
         <v>67</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>69</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="31">
         <v>8</v>
       </c>
       <c r="B11" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="54" t="s">
         <v>70</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>72</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="31">
         <v>9</v>
       </c>
       <c r="B12" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="54" t="s">
         <v>73</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>75</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="31">
         <v>10</v>
       </c>
       <c r="B13" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="54" t="s">
         <v>76</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>78</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="31">
         <v>11</v>
       </c>
       <c r="B14" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="54" t="s">
         <v>79</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>81</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="31">
         <v>12</v>
       </c>
       <c r="B15" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="54" t="s">
         <v>82</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>84</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="31">
         <v>13</v>
       </c>
       <c r="B16" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="54" t="s">
         <v>85</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>87</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="31">
         <v>14</v>
       </c>
       <c r="B17" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="54" t="s">
         <v>88</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>90</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="31">
         <v>15</v>
       </c>
       <c r="B18" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="54" t="s">
         <v>91</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>93</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="31">
         <v>16</v>
       </c>
       <c r="B19" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="54" t="s">
         <v>94</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>96</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="31">
         <v>17</v>
       </c>
       <c r="B20" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="55" t="s">
         <v>97</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>99</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="31">
         <v>18</v>
       </c>
       <c r="B21" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="55" t="s">
         <v>100</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>102</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="31">
         <v>19</v>
       </c>
@@ -6316,625 +6521,625 @@
         <v>8409146</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="31">
         <v>20</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="31">
         <v>21</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="31">
         <v>22</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D25" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="31">
         <v>23</v>
       </c>
       <c r="B26" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>137</v>
-      </c>
       <c r="E26" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="31">
         <v>24</v>
       </c>
       <c r="B27" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>140</v>
-      </c>
       <c r="D27" s="55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="31">
         <v>25</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="31">
         <v>26</v>
       </c>
       <c r="B29" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>146</v>
-      </c>
       <c r="E29" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="31">
         <v>27</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="31">
         <v>28</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C31" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="55" t="s">
-        <v>152</v>
-      </c>
       <c r="E31" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="31">
         <v>29</v>
       </c>
       <c r="B32" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="31">
         <v>30</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="31">
         <v>31</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="31">
         <v>32</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="31">
         <v>33</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="31">
         <v>34</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="31">
         <v>35</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="31">
         <v>36</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="31">
         <v>37</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="31">
         <v>38</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="31">
         <v>39</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="31">
         <v>40</v>
       </c>
       <c r="B43" s="60" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="31">
         <v>41</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="31">
         <v>42</v>
       </c>
       <c r="B45" s="60" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="31">
         <v>43</v>
       </c>
       <c r="B46" s="60" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D46" s="55" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="31">
         <v>44</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="31">
         <v>45</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="31">
         <v>46</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="31">
         <v>47</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="31">
         <v>48</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="31">
         <v>49</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="31">
         <v>50</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D53" s="55" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="31">
         <v>51</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="31">
         <v>52</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D55" s="55" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="31">
         <v>53</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D56" s="55" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="31">
         <v>54</v>
       </c>
       <c r="B57" s="60" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D57" s="55" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="31">
         <v>55</v>
       </c>
       <c r="B58" s="60" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D58" s="55" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6948,64 +7153,64 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="31.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="68.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61.75" customWidth="1"/>
-    <col min="5" max="5" width="38.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
+    <col min="2" max="2" width="31.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.19921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.69921875" customWidth="1"/>
+    <col min="5" max="5" width="38.69921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="22.2">
+      <c r="A1" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="31">
         <v>1</v>
       </c>
@@ -7013,16 +7218,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="31">
         <v>2</v>
       </c>
@@ -7030,244 +7235,244 @@
         <v>22</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="51.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="52.2">
       <c r="A6" s="31">
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="31">
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>165</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="58.9" customHeight="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="58.95" customHeight="1">
       <c r="A8" s="31">
         <v>5</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="31">
         <v>6</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>164</v>
-      </c>
       <c r="D9" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="31">
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="31">
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="31">
         <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="31">
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="31">
         <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="31">
         <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="25"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
